--- a/www/ig/fhir/sas/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T14:00:55+00:00</t>
+    <t>2024-09-05T16:04:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-05T16:04:17+00:00</t>
+    <t>2024-12-10T11:32:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil de Location, dérivé de FrLocation, pour le service d’agrégation de créneaux de la plateforme SAS (Service d’accès aux soins), dans le cadre du cas d’usage SOS Médecins</t>
+    <t>Profil de Location, dérivé de FrLocation, pour le service d’agrégation de créneaux de la plateforme SAS - cas d’usage SOS Médecins</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/www/ig/fhir/sas/StructureDefinition-sas-sos-location-aggregator.xlsx
+++ b/www/ig/fhir/sas/StructureDefinition-sas-sos-location-aggregator.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2448" uniqueCount="430">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-10T11:32:52+00:00</t>
+    <t>2025-11-24T14:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1179,7 +1179,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1257,6 +1257,9 @@
   </si>
   <si>
     <t>Location.partOf.type</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
   </si>
   <si>
     <t>Location.partOf.identifier</t>
@@ -1671,17 +1674,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="13.609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.66796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="96.859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="83.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1690,21 +1693,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.01953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.31640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -8129,7 +8132,7 @@
         <v>370</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>72</v>
@@ -8164,10 +8167,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8266,10 +8269,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8368,10 +8371,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8397,13 +8400,13 @@
         <v>330</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -8453,7 +8456,7 @@
         <v>72</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>73</v>
@@ -8470,10 +8473,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8570,10 +8573,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8672,10 +8675,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8776,10 +8779,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8805,10 +8808,10 @@
         <v>101</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>207</v>
@@ -8840,10 +8843,10 @@
         <v>162</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>72</v>
@@ -8861,7 +8864,7 @@
         <v>72</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>73</v>
@@ -8878,10 +8881,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8904,13 +8907,13 @@
         <v>72</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8961,7 +8964,7 @@
         <v>72</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>73</v>
@@ -8978,10 +8981,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9004,13 +9007,13 @@
         <v>72</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9061,7 +9064,7 @@
         <v>72</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>73</v>
@@ -9078,10 +9081,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9104,13 +9107,13 @@
         <v>72</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9161,7 +9164,7 @@
         <v>72</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>73</v>
@@ -9178,10 +9181,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9207,10 +9210,10 @@
         <v>150</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>207</v>
@@ -9263,7 +9266,7 @@
         <v>72</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>73</v>
@@ -9280,10 +9283,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9306,19 +9309,19 @@
         <v>72</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>387</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>72</v>
@@ -9367,7 +9370,7 @@
         <v>72</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>73</v>
